--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8445F0D-4CE2-4573-A82C-01163CE19E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8AECF-CED2-0A4C-8147-7735CA54E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t>WU (Vienna University of Economics and Business)</t>
   </si>
   <si>
-    <t>FWF-financed project assistant at the Vienna Graduate School of Finance since September 2015. My main duties are contributing to scientific projects, active participation at international conferences and teaching business students.</t>
-  </si>
-  <si>
     <t>Intern</t>
   </si>
   <si>
@@ -435,7 +432,10 @@
     <t>I supervised and developd a broad range of tools to analyze user behavior and product performance.</t>
   </si>
   <si>
-    <t>I manage product strategies, guide other product leaders and oversee the product lifecycle.</t>
+    <t>FWF-financed project assistant at the Vienna Graduate School of Finance with main duties ranging from contributing to scientific projects, active participation at international conferences to teaching business students.</t>
+  </si>
+  <si>
+    <t>Since September 2021, I manage product strategies, guide other product leaders and oversee the product lifecycle at the social trading platform wikifolio.</t>
   </si>
 </sst>
 </file>
@@ -853,23 +853,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="80.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
@@ -1181,7 +1181,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>2021</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2020</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>15</v>
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1253,10 +1253,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>2015</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>15</v>
@@ -1277,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1285,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1300,7 +1300,7 @@
         <v>2015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
@@ -1309,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1317,10 +1317,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1332,7 +1332,7 @@
         <v>2015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1349,10 +1349,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -1364,30 +1364,30 @@
         <v>2013</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F18">
         <v>2019</v>
@@ -1396,24 +1396,24 @@
         <v>2019</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>50</v>
@@ -1428,27 +1428,27 @@
         <v>2019</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
@@ -1460,24 +1460,24 @@
         <v>2017</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>50</v>
@@ -1492,27 +1492,27 @@
         <v>2017</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -1524,7 +1524,7 @@
         <v>2014</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
@@ -1533,15 +1533,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
@@ -1556,24 +1556,24 @@
         <v>2013</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -1588,30 +1588,30 @@
         <v>2020</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -1620,30 +1620,30 @@
         <v>2019</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F26">
         <v>2017</v>
@@ -1652,27 +1652,27 @@
         <v>2017</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
@@ -1684,27 +1684,27 @@
         <v>2015</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -1716,30 +1716,30 @@
         <v>2013</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F29">
         <v>2017</v>
@@ -1748,30 +1748,30 @@
         <v>2017</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F30">
         <v>2010</v>
@@ -1780,30 +1780,30 @@
         <v>2010</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -1812,27 +1812,27 @@
         <v>2019</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
@@ -1844,30 +1844,30 @@
         <v>2017</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F33">
         <v>2016</v>
@@ -1876,30 +1876,30 @@
         <v>2016</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F34">
         <v>2016</v>
@@ -1908,24 +1908,24 @@
         <v>2016</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -1940,24 +1940,24 @@
         <v>2012</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -1972,7 +1972,7 @@
         <v>2015</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -1981,18 +1981,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
@@ -2004,27 +2004,27 @@
         <v>2013</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -2036,27 +2036,27 @@
         <v>2015</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -2068,7 +2068,7 @@
         <v>2019</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
@@ -2091,7 +2091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D8AECF-CED2-0A4C-8147-7735CA54E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F420A6C-20B8-4E1F-8228-8950CF291987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="133">
   <si>
     <t>section</t>
   </si>
@@ -189,9 +189,6 @@
     <t>work_experience</t>
   </si>
   <si>
-    <t>Head of BI &amp; Data Science</t>
-  </si>
-  <si>
     <t>wikifolio Financial Technologies AG</t>
   </si>
   <si>
@@ -436,6 +433,18 @@
   </si>
   <si>
     <t>Since September 2021, I manage product strategies, guide other product leaders and oversee the product lifecycle at the social trading platform wikifolio.</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>tidy-finance.org</t>
+  </si>
+  <si>
+    <t>Head of Business Intelligence &amp; Data Science</t>
+  </si>
+  <si>
+    <t>Since July 2021, I am a co-author of the book 'Tidy Finance with R' (published via Chapman &amp; Hall/CRC) and maintainer of the website tidy-finance.org</t>
   </si>
 </sst>
 </file>
@@ -471,12 +480,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -536,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J39" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J40" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J40" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F8E7BBBE-526A-4466-96B6-865BDD8965B4}" uniqueName="1" name="section" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E030135A-9BC9-4A0B-858B-AA1018680F26}" uniqueName="2" name="in_resume" queryTableFieldId="2" dataDxfId="6"/>
@@ -555,7 +563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,25 +859,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -901,20 +909,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
@@ -923,30 +931,30 @@
       <c r="G2">
         <v>2020</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
@@ -955,30 +963,30 @@
       <c r="G3">
         <v>2015</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
@@ -987,186 +995,186 @@
       <c r="G4">
         <v>2012</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
@@ -1175,122 +1183,117 @@
       <c r="G11">
         <v>2021</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
+      <c r="D12" t="s">
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G12">
         <v>2021</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
+      </c>
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>2015</v>
-      </c>
-      <c r="G13">
-        <v>2020</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
         <v>2015</v>
       </c>
       <c r="G14">
-        <v>2015</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15">
@@ -1299,190 +1302,190 @@
       <c r="G15">
         <v>2015</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G16">
         <v>2015</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>2014</v>
+      </c>
+      <c r="G17">
+        <v>2015</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>2012</v>
+      </c>
+      <c r="G18">
+        <v>2013</v>
+      </c>
+      <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>2012</v>
-      </c>
-      <c r="G17">
-        <v>2013</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18">
+      <c r="F19">
         <v>2019</v>
-      </c>
-      <c r="G18">
-        <v>2019</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>2016</v>
       </c>
       <c r="G19">
         <v>2019</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>2016</v>
+      </c>
+      <c r="G20">
+        <v>2019</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>2017</v>
-      </c>
-      <c r="G20">
-        <v>2017</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21">
@@ -1491,415 +1494,415 @@
       <c r="G21">
         <v>2017</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>2017</v>
+      </c>
+      <c r="G22">
+        <v>2017</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>2012</v>
+      </c>
+      <c r="G23">
+        <v>2014</v>
+      </c>
+      <c r="H23" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>2012</v>
-      </c>
-      <c r="G22">
-        <v>2014</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>2011</v>
+      </c>
+      <c r="G24">
+        <v>2013</v>
+      </c>
+      <c r="H24" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>2011</v>
-      </c>
-      <c r="G23">
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>2020</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>2019</v>
+      </c>
+      <c r="G26">
+        <v>2019</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>2017</v>
+      </c>
+      <c r="G27">
+        <v>2017</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>2015</v>
+      </c>
+      <c r="G28">
+        <v>2015</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>2010</v>
+      </c>
+      <c r="G29">
         <v>2013</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>2020</v>
-      </c>
-      <c r="G24">
-        <v>2020</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30">
+        <v>2017</v>
+      </c>
+      <c r="G30">
+        <v>2017</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>2010</v>
+      </c>
+      <c r="G31">
+        <v>2010</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32">
         <v>2019</v>
       </c>
-      <c r="G25">
+      <c r="G32">
         <v>2019</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26">
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
         <v>2017</v>
       </c>
-      <c r="G26">
+      <c r="G33">
         <v>2017</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>2015</v>
-      </c>
-      <c r="G27">
-        <v>2015</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>2010</v>
-      </c>
-      <c r="G28">
-        <v>2013</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29">
-        <v>2017</v>
-      </c>
-      <c r="G29">
-        <v>2017</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30">
-        <v>2010</v>
-      </c>
-      <c r="G30">
-        <v>2010</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="H33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31">
-        <v>2019</v>
-      </c>
-      <c r="G31">
-        <v>2019</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <v>2017</v>
-      </c>
-      <c r="G32">
-        <v>2017</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D34" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E34" t="s">
         <v>108</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33">
-        <v>2016</v>
-      </c>
-      <c r="G33">
-        <v>2016</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F34">
         <v>2016</v>
@@ -1907,173 +1910,205 @@
       <c r="G34">
         <v>2016</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35">
+        <v>2016</v>
+      </c>
+      <c r="G35">
+        <v>2016</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>2011</v>
+      </c>
+      <c r="G36">
+        <v>2012</v>
+      </c>
+      <c r="H36" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35">
-        <v>2011</v>
-      </c>
-      <c r="G35">
-        <v>2012</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36">
-        <v>2013</v>
-      </c>
-      <c r="G36">
-        <v>2015</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37">
         <v>2013</v>
       </c>
       <c r="G37">
+        <v>2015</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
         <v>2013</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G38">
+        <v>2013</v>
+      </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D39" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>2011</v>
+      </c>
+      <c r="G39">
+        <v>2015</v>
+      </c>
+      <c r="H39" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38">
-        <v>2011</v>
-      </c>
-      <c r="G38">
-        <v>2015</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D40" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39">
-        <v>2019</v>
-      </c>
-      <c r="G39">
-        <v>2019</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2091,7 +2126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F420A6C-20B8-4E1F-8228-8950CF291987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39305FAC-9ABA-4FF5-98DB-233A60829697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$40</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
   <si>
     <t>section</t>
   </si>
@@ -120,9 +120,6 @@
     <t>I presented the paper at the Second Toronto FinTech Conference and the 2018 and 2019 VGSF Conference.</t>
   </si>
   <si>
-    <t>Building Trust Takes Time: Limits to Arbitrage in Decentralized Markets</t>
-  </si>
-  <si>
     <t>with Nikolaus Hautsch and Stefan Voigt</t>
   </si>
   <si>
@@ -426,15 +423,9 @@
     <t>Director of Product</t>
   </si>
   <si>
-    <t>I supervised and developd a broad range of tools to analyze user behavior and product performance.</t>
-  </si>
-  <si>
     <t>FWF-financed project assistant at the Vienna Graduate School of Finance with main duties ranging from contributing to scientific projects, active participation at international conferences to teaching business students.</t>
   </si>
   <si>
-    <t>Since September 2021, I manage product strategies, guide other product leaders and oversee the product lifecycle at the social trading platform wikifolio.</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -444,7 +435,22 @@
     <t>Head of Business Intelligence &amp; Data Science</t>
   </si>
   <si>
-    <t>Since July 2021, I am a co-author of the book 'Tidy Finance with R' (published via Chapman &amp; Hall/CRC) and maintainer of the website tidy-finance.org</t>
+    <t>I supervised and developed a broad range of tools to analyze user behavior and product performance.</t>
+  </si>
+  <si>
+    <t>External Lecturer</t>
+  </si>
+  <si>
+    <t>Since September 2021, I manage product strategies, oversee the product lifecycle, and coach other product leaders and data scientists</t>
+  </si>
+  <si>
+    <t>Since September 2021, I teach finance students how to manage empirical projects</t>
+  </si>
+  <si>
+    <t>Since July 2021, I am a co-author of the book 'Tidy Finance with R' (published via Chapman &amp; Hall/CRC) and maintainer of the website</t>
+  </si>
+  <si>
+    <t>Building Trust Takes Time: Limits to Arbitrage in Blockchain-Based Markets</t>
   </si>
 </sst>
 </file>
@@ -544,8 +550,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J40" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J40" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J41" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J41" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F8E7BBBE-526A-4466-96B6-865BDD8965B4}" uniqueName="1" name="section" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E030135A-9BC9-4A0B-858B-AA1018680F26}" uniqueName="2" name="in_resume" queryTableFieldId="2" dataDxfId="6"/>
@@ -859,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,22 +1045,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,19 +1071,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1091,22 +1097,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,22 +1123,22 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,16 +1149,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1163,16 +1169,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1184,21 +1190,24 @@
         <v>2021</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
       </c>
       <c r="F12">
         <v>2021</v>
@@ -1218,28 +1227,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G13">
         <v>2021</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1250,28 +1256,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1282,16 +1288,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -1300,10 +1306,10 @@
         <v>2015</v>
       </c>
       <c r="G15">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1314,16 +1320,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1335,7 +1341,7 @@
         <v>2015</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1346,28 +1352,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G17">
         <v>2015</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1378,28 +1384,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G18">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1410,28 +1416,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="G19">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1442,28 +1448,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G20">
         <v>2019</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1474,28 +1480,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1506,16 +1512,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1527,7 +1533,7 @@
         <v>2017</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1538,28 +1544,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>2017</v>
+      </c>
+      <c r="G23">
+        <v>2017</v>
+      </c>
+      <c r="H23" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>2012</v>
-      </c>
-      <c r="G23">
-        <v>2014</v>
-      </c>
-      <c r="H23" t="s">
-        <v>72</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -1570,28 +1576,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G24">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -1602,28 +1608,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="G25">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1634,28 +1640,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1666,28 +1672,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G27">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -1698,28 +1704,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G28">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -1730,28 +1736,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G29">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1762,28 +1768,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="G30">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1794,28 +1800,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F31">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="G31">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -1826,28 +1832,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F32">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G32">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -1858,28 +1864,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F33">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G33">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1890,28 +1896,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G34">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>2016</v>
@@ -1943,7 +1949,7 @@
         <v>2016</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1954,28 +1960,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G36">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1986,13 +1992,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -2001,13 +2007,13 @@
         <v>14</v>
       </c>
       <c r="F37">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G37">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -2018,16 +2024,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -2036,10 +2042,10 @@
         <v>2013</v>
       </c>
       <c r="G38">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -2050,28 +2056,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G39">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -2082,33 +2088,65 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>2011</v>
+      </c>
+      <c r="G40">
+        <v>2015</v>
+      </c>
+      <c r="H40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>2019</v>
+      </c>
+      <c r="G41">
+        <v>2019</v>
+      </c>
+      <c r="H41" t="s">
         <v>123</v>
       </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>2019</v>
-      </c>
-      <c r="G40">
-        <v>2019</v>
-      </c>
-      <c r="H40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
         <v>15</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39305FAC-9ABA-4FF5-98DB-233A60829697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F35518-274B-4B59-8F79-F29DFC155DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$41</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
   <si>
     <t>section</t>
   </si>
@@ -441,16 +441,37 @@
     <t>External Lecturer</t>
   </si>
   <si>
-    <t>Since September 2021, I manage product strategies, oversee the product lifecycle, and coach other product leaders and data scientists</t>
-  </si>
-  <si>
-    <t>Since September 2021, I teach finance students how to manage empirical projects</t>
-  </si>
-  <si>
     <t>Since July 2021, I am a co-author of the book 'Tidy Finance with R' (published via Chapman &amp; Hall/CRC) and maintainer of the website</t>
   </si>
   <si>
     <t>Building Trust Takes Time: Limits to Arbitrage in Blockchain-Based Markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tought finance master students how to manage empirical projects </t>
+  </si>
+  <si>
+    <t>I managed product strategies, oversaw the product lifecycle, and coached other product leaders and data scientists</t>
+  </si>
+  <si>
+    <t>Head of Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>I research cutting edge AI technologies and prototype AI-driven products using R and Python</t>
+  </si>
+  <si>
+    <t>Designing and Building AI Products and Services</t>
+  </si>
+  <si>
+    <t>MIT xPRO</t>
+  </si>
+  <si>
+    <t>Course on the AI design process, fundamentals of machine learning and deep learning, designing human-computer interfaces, designing organizations that combine human and artificial intelligence, marketplace frontiers of AI design</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>I taught an industry lab for quantitative finance master students together with Prof. Stefan Pichler</t>
   </si>
 </sst>
 </file>
@@ -550,8 +571,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J41" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J44" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J44" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F8E7BBBE-526A-4466-96B6-865BDD8965B4}" uniqueName="1" name="section" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E030135A-9BC9-4A0B-858B-AA1018680F26}" uniqueName="2" name="in_resume" queryTableFieldId="2" dataDxfId="6"/>
@@ -865,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1175,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -1184,13 +1205,13 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1201,13 +1222,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>2021</v>
@@ -1216,7 +1234,7 @@
         <v>2021</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1233,25 +1251,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
       </c>
       <c r="F13">
         <v>2021</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1262,22 +1277,22 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -1294,22 +1309,22 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1326,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1338,10 +1353,10 @@
         <v>2015</v>
       </c>
       <c r="G16">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1358,10 +1373,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1373,7 +1388,7 @@
         <v>2015</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1390,22 +1405,22 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G18">
         <v>2015</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1422,22 +1437,22 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G19">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1448,28 +1463,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="G20">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1482,11 +1497,11 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
+      <c r="B21" t="b">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -1495,19 +1510,13 @@
         <v>14</v>
       </c>
       <c r="F21">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G21">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,22 +1527,22 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G22">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1550,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -1559,13 +1568,13 @@
         <v>14</v>
       </c>
       <c r="F23">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G23">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -1582,22 +1591,22 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="G24">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -1617,19 +1626,19 @@
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G25">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1640,28 +1649,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="G26">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1672,28 +1681,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G27">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
@@ -1710,22 +1719,22 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G28">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -1742,22 +1751,22 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F29">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="G29">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1774,22 +1783,22 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F30">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="G30">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1806,22 +1815,22 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G31">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -1838,22 +1847,22 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F32">
         <v>2010</v>
       </c>
       <c r="G32">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -1864,28 +1873,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F33">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G33">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1896,28 +1905,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F34">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="G34">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -1934,22 +1943,22 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F35">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G35">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1966,22 +1975,22 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G36">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1998,22 +2007,22 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F37">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G37">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -2030,22 +2039,22 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G38">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -2062,22 +2071,22 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -2094,22 +2103,22 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G40">
         <v>2015</v>
       </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -2126,28 +2135,115 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>2013</v>
+      </c>
+      <c r="G41">
+        <v>2013</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>2011</v>
+      </c>
+      <c r="G42">
+        <v>2015</v>
+      </c>
+      <c r="H42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>121</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>122</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41">
+      <c r="F43">
         <v>2019</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>2019</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
         <v>123</v>
       </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44">
+        <v>2023</v>
+      </c>
+      <c r="G44">
+        <v>2023</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/GitHub/private/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F35518-274B-4B59-8F79-F29DFC155DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C149FB-F321-3F44-94E3-89878A0D2E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$44</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
   <si>
     <t>section</t>
   </si>
@@ -426,12 +426,6 @@
     <t>FWF-financed project assistant at the Vienna Graduate School of Finance with main duties ranging from contributing to scientific projects, active participation at international conferences to teaching business students.</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>tidy-finance.org</t>
-  </si>
-  <si>
     <t>Head of Business Intelligence &amp; Data Science</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
     <t>External Lecturer</t>
   </si>
   <si>
-    <t>Since July 2021, I am a co-author of the book 'Tidy Finance with R' (published via Chapman &amp; Hall/CRC) and maintainer of the website</t>
-  </si>
-  <si>
     <t>Building Trust Takes Time: Limits to Arbitrage in Blockchain-Based Markets</t>
   </si>
   <si>
@@ -456,9 +447,6 @@
     <t>Head of Artificial Intelligence</t>
   </si>
   <si>
-    <t>I research cutting edge AI technologies and prototype AI-driven products using R and Python</t>
-  </si>
-  <si>
     <t>Designing and Building AI Products and Services</t>
   </si>
   <si>
@@ -472,6 +460,45 @@
   </si>
   <si>
     <t>I taught an industry lab for quantitative finance master students together with Prof. Stefan Pichler</t>
+  </si>
+  <si>
+    <t>Tidy Finance</t>
+  </si>
+  <si>
+    <t>Content Creator</t>
+  </si>
+  <si>
+    <t>Tidy Intelligence</t>
+  </si>
+  <si>
+    <t>Tidy Finance with Python</t>
+  </si>
+  <si>
+    <t>Tidy Finance with R</t>
+  </si>
+  <si>
+    <t>with Stefan Voigt and Patrick Weiss</t>
+  </si>
+  <si>
+    <t>with Christoph Frey, Stefan Voigt and Patrick Weiss</t>
+  </si>
+  <si>
+    <t>Author &amp; Maintainer</t>
+  </si>
+  <si>
+    <t>Since January 2024, I create blog posts about tidy data science on my website tidy-intelligence.com</t>
+  </si>
+  <si>
+    <t>We wrote a translation of our first textbook to Python, which will be published via Chapman &amp; Hall/CRC in 2024.</t>
+  </si>
+  <si>
+    <t>We wrote a textbook on solving empirical problems in financial economics using reproducible and tidy coding principles, which was published via Chapman &amp; Hall/CRC in 2023.</t>
+  </si>
+  <si>
+    <t>Since 2021, I am a co-author of the open-source books 'Tidy Finance with R' and 'Tidy Finance with Python' hosted on tidy-finance.org</t>
+  </si>
+  <si>
+    <t>Since April 2023, I research cutting edge AI technologies and prototype AI-driven products using R and Python</t>
   </si>
 </sst>
 </file>
@@ -507,11 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -571,8 +599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J44" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J44" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J47" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J47" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F8E7BBBE-526A-4466-96B6-865BDD8965B4}" uniqueName="1" name="section" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E030135A-9BC9-4A0B-858B-AA1018680F26}" uniqueName="2" name="in_resume" queryTableFieldId="2" dataDxfId="6"/>
@@ -590,7 +618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,25 +914,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -968,7 +996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1032,59 +1060,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1092,25 +1108,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1118,25 +1134,25 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1144,25 +1160,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1170,72 +1186,69 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>2023</v>
-      </c>
-      <c r="G11">
-        <v>2023</v>
-      </c>
-      <c r="H11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12">
-        <v>2021</v>
-      </c>
-      <c r="G12">
-        <v>2021</v>
-      </c>
-      <c r="H12" t="s">
-        <v>131</v>
-      </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
@@ -1243,33 +1256,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F13">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G13">
-        <v>2023</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1277,31 +1289,25 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G14">
         <v>2023</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1309,22 +1315,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G15">
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1333,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1341,31 +1344,25 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="G16">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1373,22 +1370,22 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="G17">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1397,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1405,22 +1402,22 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G18">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1429,7 +1426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1437,22 +1434,22 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G19">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1461,7 +1458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1469,113 +1466,119 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>2015</v>
+      </c>
+      <c r="G20">
+        <v>2015</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>2015</v>
+      </c>
+      <c r="G21">
+        <v>2015</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>2014</v>
+      </c>
+      <c r="G22">
+        <v>2015</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
         <v>2012</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <v>2013</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H23" t="s">
         <v>57</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>2021</v>
-      </c>
-      <c r="G21">
-        <v>2023</v>
-      </c>
-      <c r="H21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22">
-        <v>2019</v>
-      </c>
-      <c r="G22">
-        <v>2019</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>2016</v>
-      </c>
-      <c r="G23">
-        <v>2019</v>
-      </c>
-      <c r="H23" t="s">
-        <v>64</v>
-      </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
@@ -1583,39 +1586,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
+      <c r="B24" t="b">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="G24">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1623,22 +1620,22 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1647,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1655,22 +1652,22 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="G26">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1679,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1687,39 +1684,39 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>2017</v>
+      </c>
+      <c r="G27">
+        <v>2017</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>2011</v>
-      </c>
-      <c r="G27">
-        <v>2013</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
@@ -1728,13 +1725,13 @@
         <v>14</v>
       </c>
       <c r="F28">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G28">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -1743,30 +1740,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="G29">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1775,30 +1772,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G30">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
@@ -1807,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1815,22 +1812,22 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G31">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -1839,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1847,22 +1844,22 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F32">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="G32">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -1871,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1879,13 +1876,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F33">
         <v>2017</v>
@@ -1894,7 +1891,7 @@
         <v>2017</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -1903,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1911,54 +1908,54 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F34">
+        <v>2015</v>
+      </c>
+      <c r="G34">
+        <v>2015</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
         <v>2010</v>
       </c>
-      <c r="G34">
-        <v>2010</v>
-      </c>
-      <c r="H34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35">
-        <v>2019</v>
-      </c>
       <c r="G35">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1967,21 +1964,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F36">
         <v>2017</v>
@@ -1990,7 +1987,7 @@
         <v>2017</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -1999,30 +1996,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F37">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="G37">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -2031,7 +2028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -2039,22 +2036,22 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F38">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G38">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -2063,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2071,22 +2068,22 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G39">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -2095,7 +2092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -2103,22 +2100,22 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F40">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G40">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -2127,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2135,22 +2132,22 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="G41">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -2159,7 +2156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2167,10 +2164,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -2179,10 +2176,10 @@
         <v>2011</v>
       </c>
       <c r="G42">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="H42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -2191,7 +2188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -2199,19 +2196,22 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -2220,30 +2220,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="b">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>2013</v>
+      </c>
+      <c r="G44">
+        <v>2013</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>2011</v>
+      </c>
+      <c r="G45">
+        <v>2015</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46">
+        <v>2019</v>
+      </c>
+      <c r="H46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="b">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44">
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47">
         <v>2023</v>
       </c>
-      <c r="G44">
+      <c r="G47">
         <v>2023</v>
       </c>
-      <c r="H44" t="s">
-        <v>139</v>
+      <c r="H47" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/GitHub/private/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\privat\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C149FB-F321-3F44-94E3-89878A0D2E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC41A9C-633A-48DB-BC89-20A1B04141A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">positions!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
   <si>
     <t>section</t>
   </si>
@@ -123,9 +123,6 @@
     <t>with Nikolaus Hautsch and Stefan Voigt</t>
   </si>
   <si>
-    <t>We demonstrate how blockchain-based settlement introduces a novel friction to cross-market trading.</t>
-  </si>
-  <si>
     <t>I developed the R package 'CryptoX' to collect orderbook data from the public APIs of crypto exchange and complemented it by a comprehensive database of Bitcoin transactions.</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>Tidy Finance</t>
   </si>
   <si>
-    <t>Content Creator</t>
-  </si>
-  <si>
     <t>Tidy Intelligence</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>with Christoph Frey, Stefan Voigt and Patrick Weiss</t>
   </si>
   <si>
-    <t>Author &amp; Maintainer</t>
-  </si>
-  <si>
     <t>Since January 2024, I create blog posts about tidy data science on my website tidy-intelligence.com</t>
   </si>
   <si>
@@ -495,10 +486,31 @@
     <t>We wrote a textbook on solving empirical problems in financial economics using reproducible and tidy coding principles, which was published via Chapman &amp; Hall/CRC in 2023.</t>
   </si>
   <si>
-    <t>Since 2021, I am a co-author of the open-source books 'Tidy Finance with R' and 'Tidy Finance with Python' hosted on tidy-finance.org</t>
-  </si>
-  <si>
-    <t>Since April 2023, I research cutting edge AI technologies and prototype AI-driven products using R and Python</t>
+    <t>Co-Creator &amp; Maintainer</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Since 2021, I am a co-creator of the open-source books 'Tidy Finance with R' and 'Tidy Finance with Python' hosted on tidy-finance.org</t>
+  </si>
+  <si>
+    <t>I researched cutting edge AI technologies and prototype AI-driven products using R and Python</t>
+  </si>
+  <si>
+    <t>We demonstrate how blockchain-based settlement introduces a novel friction to cross-market trading, which was published in the Review of Finance in 2024.</t>
+  </si>
+  <si>
+    <t>Co-Organizer</t>
+  </si>
+  <si>
+    <t>Berlin R Users Group</t>
+  </si>
+  <si>
+    <t>Berlin, DE</t>
+  </si>
+  <si>
+    <t>Since 2023, I co-organize meetups of the Berlin R Users Group (BRUG)</t>
   </si>
 </sst>
 </file>
@@ -534,12 +546,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -599,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J47" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J47" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}" name="positions" displayName="positions" ref="A1:J48" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J48" xr:uid="{B26F6A04-76D3-46EB-8965-97466B7C5B13}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F8E7BBBE-526A-4466-96B6-865BDD8965B4}" uniqueName="1" name="section" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E030135A-9BC9-4A0B-858B-AA1018680F26}" uniqueName="2" name="in_resume" queryTableFieldId="2" dataDxfId="6"/>
@@ -618,7 +629,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -914,25 +925,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1060,47 +1071,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1143,16 +1148,16 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1160,25 +1165,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1186,25 +1191,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1212,25 +1217,25 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1238,36 +1243,36 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>140</v>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
       </c>
       <c r="F13">
         <v>2024</v>
@@ -1275,24 +1280,22 @@
       <c r="G13">
         <v>2024</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -1301,24 +1304,24 @@
         <v>2023</v>
       </c>
       <c r="G14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15">
         <v>2021</v>
@@ -1327,7 +1330,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1336,18 +1339,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1359,21 +1362,21 @@
         <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -1385,7 +1388,7 @@
         <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1394,18 +1397,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1417,7 +1420,7 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1426,18 +1429,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1449,7 +1452,7 @@
         <v>2020</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1458,18 +1461,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -1481,27 +1484,27 @@
         <v>2015</v>
       </c>
       <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -1513,27 +1516,27 @@
         <v>2015</v>
       </c>
       <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1545,7 +1548,7 @@
         <v>2015</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1554,18 +1557,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -1577,27 +1580,27 @@
         <v>2013</v>
       </c>
       <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>57</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>58</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1609,24 +1612,24 @@
         <v>2023</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -1635,27 +1638,27 @@
         <v>2019</v>
       </c>
       <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -1667,27 +1670,27 @@
         <v>2019</v>
       </c>
       <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1699,27 +1702,27 @@
         <v>2017</v>
       </c>
       <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -1731,27 +1734,27 @@
         <v>2017</v>
       </c>
       <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1763,7 +1766,7 @@
         <v>2014</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -1772,15 +1775,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1795,27 +1798,27 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>72</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -1827,30 +1830,30 @@
         <v>2020</v>
       </c>
       <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1859,30 +1862,30 @@
         <v>2019</v>
       </c>
       <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>80</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
       </c>
       <c r="F33">
         <v>2017</v>
@@ -1891,27 +1894,27 @@
         <v>2017</v>
       </c>
       <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1923,27 +1926,27 @@
         <v>2015</v>
       </c>
       <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>86</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1955,30 +1958,30 @@
         <v>2013</v>
       </c>
       <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>89</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>92</v>
       </c>
       <c r="F36">
         <v>2017</v>
@@ -1987,30 +1990,30 @@
         <v>2017</v>
       </c>
       <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
       </c>
       <c r="F37">
         <v>2010</v>
@@ -2019,30 +2022,30 @@
         <v>2010</v>
       </c>
       <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
         <v>98</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>99</v>
       </c>
-      <c r="D38" t="s">
-        <v>100</v>
-      </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -2051,27 +2054,27 @@
         <v>2019</v>
       </c>
       <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>102</v>
-      </c>
-      <c r="D39" t="s">
-        <v>103</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -2083,30 +2086,30 @@
         <v>2017</v>
       </c>
       <c r="H39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
         <v>104</v>
       </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
       </c>
       <c r="F40">
         <v>2016</v>
@@ -2115,30 +2118,30 @@
         <v>2016</v>
       </c>
       <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>109</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>110</v>
-      </c>
-      <c r="E41" t="s">
-        <v>111</v>
       </c>
       <c r="F41">
         <v>2016</v>
@@ -2147,24 +2150,24 @@
         <v>2016</v>
       </c>
       <c r="H41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>112</v>
-      </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -2179,24 +2182,24 @@
         <v>2012</v>
       </c>
       <c r="H42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
         <v>114</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -2211,7 +2214,7 @@
         <v>2015</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -2220,18 +2223,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -2243,27 +2246,27 @@
         <v>2013</v>
       </c>
       <c r="H44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
         <v>117</v>
       </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -2275,27 +2278,27 @@
         <v>2015</v>
       </c>
       <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
         <v>120</v>
       </c>
-      <c r="I45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -2304,7 +2307,7 @@
         <v>2019</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -2313,21 +2316,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F47">
         <v>2023</v>
@@ -2336,7 +2339,33 @@
         <v>2023</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48">
+        <v>2023</v>
+      </c>
+      <c r="G48">
+        <v>2023</v>
+      </c>
+      <c r="H48" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christoph.scheuch\Documents\Github\privat\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/GitHub/private/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC41A9C-633A-48DB-BC89-20A1B04141A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809F12E-601A-3F43-84CB-60D2862A0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="38700" windowHeight="15345" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="28800" windowHeight="15340" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="154">
   <si>
     <t>section</t>
   </si>
@@ -81,9 +81,6 @@
     <t>education</t>
   </si>
   <si>
-    <t>WAHR</t>
-  </si>
-  <si>
     <t>PhD Candidate, Finance</t>
   </si>
   <si>
@@ -435,12 +432,6 @@
     <t>Building Trust Takes Time: Limits to Arbitrage in Blockchain-Based Markets</t>
   </si>
   <si>
-    <t xml:space="preserve">I tought finance master students how to manage empirical projects </t>
-  </si>
-  <si>
-    <t>I managed product strategies, oversaw the product lifecycle, and coached other product leaders and data scientists</t>
-  </si>
-  <si>
     <t>Head of Artificial Intelligence</t>
   </si>
   <si>
@@ -477,9 +468,6 @@
     <t>with Christoph Frey, Stefan Voigt and Patrick Weiss</t>
   </si>
   <si>
-    <t>Since January 2024, I create blog posts about tidy data science on my website tidy-intelligence.com</t>
-  </si>
-  <si>
     <t>We wrote a translation of our first textbook to Python, which will be published via Chapman &amp; Hall/CRC in 2024.</t>
   </si>
   <si>
@@ -492,12 +480,6 @@
     <t>Expert</t>
   </si>
   <si>
-    <t>Since 2021, I am a co-creator of the open-source books 'Tidy Finance with R' and 'Tidy Finance with Python' hosted on tidy-finance.org</t>
-  </si>
-  <si>
-    <t>I researched cutting edge AI technologies and prototype AI-driven products using R and Python</t>
-  </si>
-  <si>
     <t>We demonstrate how blockchain-based settlement introduces a novel friction to cross-market trading, which was published in the Review of Finance in 2024.</t>
   </si>
   <si>
@@ -511,6 +493,21 @@
   </si>
   <si>
     <t>Since 2023, I co-organize meetups of the Berlin R Users Group (BRUG)</t>
+  </si>
+  <si>
+    <t>Since 2024, I offer workshops and data-related services as an independent expert.</t>
+  </si>
+  <si>
+    <t>I researched cutting edge AI technologies and prototype AI-driven products using R and Python.</t>
+  </si>
+  <si>
+    <t>Since 2021, I am a co-creator of the open-source books 'Tidy Finance with R' and 'Tidy Finance with Python' hosted on tidy-finance.org.</t>
+  </si>
+  <si>
+    <t>I managed product strategies, oversaw the product lifecycle, and coached other product leaders and data scientists.</t>
+  </si>
+  <si>
+    <t>I tought finance master students how to manage empirical projects.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -629,9 +626,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +666,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,23 +924,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,21 +972,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>2015</v>
@@ -998,30 +995,30 @@
         <v>2020</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>2012</v>
@@ -1030,30 +1027,30 @@
         <v>2015</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>2009</v>
@@ -1062,217 +1059,217 @@
         <v>2012</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="J11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" t="b">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <v>2024</v>
@@ -1281,24 +1278,24 @@
         <v>2024</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -1307,21 +1304,21 @@
         <v>2024</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F15">
         <v>2021</v>
@@ -1330,30 +1327,30 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>2021</v>
@@ -1362,24 +1359,24 @@
         <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>2021</v>
@@ -1388,30 +1385,30 @@
         <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -1420,30 +1417,30 @@
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>2015</v>
@@ -1452,30 +1449,30 @@
         <v>2020</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>2015</v>
@@ -1484,30 +1481,30 @@
         <v>2015</v>
       </c>
       <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>2015</v>
@@ -1516,30 +1513,30 @@
         <v>2015</v>
       </c>
       <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>2014</v>
@@ -1548,30 +1545,30 @@
         <v>2015</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>2012</v>
@@ -1580,30 +1577,30 @@
         <v>2013</v>
       </c>
       <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>2021</v>
@@ -1612,24 +1609,24 @@
         <v>2023</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>60</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -1638,30 +1635,30 @@
         <v>2019</v>
       </c>
       <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>2016</v>
@@ -1670,30 +1667,30 @@
         <v>2019</v>
       </c>
       <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>2017</v>
@@ -1702,30 +1699,30 @@
         <v>2017</v>
       </c>
       <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>2017</v>
@@ -1734,30 +1731,30 @@
         <v>2017</v>
       </c>
       <c r="H28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>2012</v>
@@ -1766,30 +1763,30 @@
         <v>2014</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>2011</v>
@@ -1798,30 +1795,30 @@
         <v>2013</v>
       </c>
       <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>2020</v>
@@ -1830,30 +1827,30 @@
         <v>2020</v>
       </c>
       <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1862,30 +1859,30 @@
         <v>2019</v>
       </c>
       <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
       </c>
       <c r="F33">
         <v>2017</v>
@@ -1894,30 +1891,30 @@
         <v>2017</v>
       </c>
       <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>2015</v>
@@ -1926,30 +1923,30 @@
         <v>2015</v>
       </c>
       <c r="H34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>2010</v>
@@ -1958,30 +1955,30 @@
         <v>2013</v>
       </c>
       <c r="H35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="I35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
       </c>
       <c r="F36">
         <v>2017</v>
@@ -1990,30 +1987,30 @@
         <v>2017</v>
       </c>
       <c r="H36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>92</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
       </c>
       <c r="F37">
         <v>2010</v>
@@ -2022,30 +2019,30 @@
         <v>2010</v>
       </c>
       <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
-      <c r="I37" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="D38" t="s">
-        <v>99</v>
-      </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -2054,30 +2051,30 @@
         <v>2019</v>
       </c>
       <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>100</v>
       </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>2017</v>
@@ -2086,30 +2083,30 @@
         <v>2017</v>
       </c>
       <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
       </c>
       <c r="F40">
         <v>2016</v>
@@ -2118,30 +2115,30 @@
         <v>2016</v>
       </c>
       <c r="H40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>107</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>109</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
       </c>
       <c r="F41">
         <v>2016</v>
@@ -2150,30 +2147,30 @@
         <v>2016</v>
       </c>
       <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="I41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>2011</v>
@@ -2182,30 +2179,30 @@
         <v>2012</v>
       </c>
       <c r="H42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>113</v>
       </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>2013</v>
@@ -2214,30 +2211,30 @@
         <v>2015</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>2013</v>
@@ -2246,30 +2243,30 @@
         <v>2013</v>
       </c>
       <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>116</v>
       </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>117</v>
       </c>
-      <c r="D45" t="s">
-        <v>118</v>
-      </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>2011</v>
@@ -2278,27 +2275,27 @@
         <v>2015</v>
       </c>
       <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>119</v>
       </c>
-      <c r="I45" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>120</v>
-      </c>
-      <c r="D46" t="s">
-        <v>121</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -2307,30 +2304,30 @@
         <v>2019</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
         <v>132</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
       </c>
       <c r="F47">
         <v>2023</v>
@@ -2339,24 +2336,24 @@
         <v>2023</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F48">
         <v>2023</v>
@@ -2365,7 +2362,7 @@
         <v>2023</v>
       </c>
       <c r="H48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krise/Documents/GitHub/private/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809F12E-601A-3F43-84CB-60D2862A0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B385C-D2AE-1549-913A-30F9FED5CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="28800" windowHeight="15340" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="28800" windowHeight="15340" xr2:uid="{2E4E6680-E5A3-4BDC-8F0B-E8011F05DD0D}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="155">
   <si>
     <t>section</t>
   </si>
@@ -468,18 +468,12 @@
     <t>with Christoph Frey, Stefan Voigt and Patrick Weiss</t>
   </si>
   <si>
-    <t>We wrote a translation of our first textbook to Python, which will be published via Chapman &amp; Hall/CRC in 2024.</t>
-  </si>
-  <si>
     <t>We wrote a textbook on solving empirical problems in financial economics using reproducible and tidy coding principles, which was published via Chapman &amp; Hall/CRC in 2023.</t>
   </si>
   <si>
     <t>Co-Creator &amp; Maintainer</t>
   </si>
   <si>
-    <t>Expert</t>
-  </si>
-  <si>
     <t>We demonstrate how blockchain-based settlement introduces a novel friction to cross-market trading, which was published in the Review of Finance in 2024.</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
     <t>Since 2023, I co-organize meetups of the Berlin R Users Group (BRUG)</t>
   </si>
   <si>
-    <t>Since 2024, I offer workshops and data-related services as an independent expert.</t>
-  </si>
-  <si>
     <t>I researched cutting edge AI technologies and prototype AI-driven products using R and Python.</t>
   </si>
   <si>
@@ -508,6 +499,18 @@
   </si>
   <si>
     <t>I tought finance master students how to manage empirical projects.</t>
+  </si>
+  <si>
+    <t>Since 2024, I specialize in crafting elegant solutions that transform data chaos into joyful insights by building inveractive dashboards, automated reports, custom packages or tailored workshops.</t>
+  </si>
+  <si>
+    <t>We wrote a translation of our first textbook to Python, which was published via Chapman &amp; Hall/CRC in 2024.</t>
+  </si>
+  <si>
+    <t>Berlin, DE &amp; Vienna, AT</t>
+  </si>
+  <si>
+    <t>Freelance Expert</t>
   </si>
 </sst>
 </file>
@@ -924,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF032876-FC5A-4985-85F8-E9D70B954437}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1085,7 @@
         <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1099,7 +1102,7 @@
         <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -1266,11 +1269,14 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
         <v>135</v>
       </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
       <c r="F13">
         <v>2024</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>2024</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1304,7 +1310,7 @@
         <v>2024</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1315,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
@@ -1327,7 +1333,7 @@
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1359,7 +1365,7 @@
         <v>2023</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1385,7 +1391,7 @@
         <v>2023</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -2347,13 +2353,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
         <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
       </c>
       <c r="F48">
         <v>2023</v>
@@ -2362,7 +2368,7 @@
         <v>2023</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
